--- a/biology/Botanique/Opuntia_monacantha/Opuntia_monacantha.xlsx
+++ b/biology/Botanique/Opuntia_monacantha/Opuntia_monacantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Opuntia monacantha est une espèce de plantes dicotylédones de la famille des Cactaceae, originaire d'Amérique du Sud. Ce sont des arbustes succulents et épineux, pouvant atteindre 5 mètres de haut, formés de cladodes (« raquettes ») obovales à oblongs lancéolés. Les fruits sont comestibles mais n'ont pas de valeur commerciale.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Opuntia monacantha est une espèce endémique en Argentine, Brésil, Paraguay, Uruguay et naturalisée en Australie et en Afrique du Sud où elle est considérée comme une plante envahissante.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts subtropicales ou tropicales humides de basse altitude et les rivages sablonneux.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste de 2 à 3 mètres de haut aux fleurs jaunes.
 </t>
@@ -604,7 +622,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son fruit est comestible. Plante ornementale.
 </t>
@@ -635,7 +655,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été officiellement décrite en 1812 par le botaniste Adrian Haworth in Succulentarum Synopsis Plantarum. Le nom de Opuntia vulgaris, synonyme d’Opuntia ficus-indica a été appliqué à tort à cette espèce en Australie.
 </t>
